--- a/RV Test Case Demo.xlsx
+++ b/RV Test Case Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icoltrain/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F667D135-1D3D-FD42-B744-17D787145BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565F19ED-9891-9546-9433-BB84B64D9D48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2200" windowWidth="25800" windowHeight="24200" xr2:uid="{0B5A6599-E1DD-0146-AFB5-B6EBF5FA84EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Case</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>This case checks to ensure there are no broken images. Broken images are unsightly and can cause pages to display in with the wrong resolution, ultimately impacting the end users experience. It’s very important to ensure there are no broken images on any of the sites pages and gather an accurate count of all images.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to review my test plan. Just for refference, I am using IntelliJ IDEA to run my automated test cases. All of the above test cases have been automated using Selenium WebDriver. They have been included in the zip folder found at: https://github.com/IsaacT5040/RVTestCaseDemo.git. All of my code is writen in JAVA.</t>
   </si>
 </sst>
 </file>
@@ -168,20 +174,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ADC406-3425-C843-B19A-B71DDC246963}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,13 +545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -577,14 +586,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -598,14 +607,14 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -613,140 +622,164 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="221" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B15:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 D25:D118 D5">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
@@ -757,7 +790,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D118" xr:uid="{B2A78B27-7A8D-C24E-90A5-E2653FB83FF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D14 D25:D118" xr:uid="{B2A78B27-7A8D-C24E-90A5-E2653FB83FF0}">
       <formula1>$F$2:$F$3</formula1>
     </dataValidation>
   </dataValidations>
